--- a/tabular/hbv_refseq_data.xlsx
+++ b/tabular/hbv_refseq_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="9880" yWindow="0" windowWidth="36420" windowHeight="24720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="305">
   <si>
     <t>Genotype</t>
   </si>
@@ -316,6 +316,624 @@
   </si>
   <si>
     <t>SequenceID</t>
+  </si>
+  <si>
+    <t>V01460</t>
+  </si>
+  <si>
+    <t>gb_accession_version</t>
+  </si>
+  <si>
+    <t>gb_length</t>
+  </si>
+  <si>
+    <t>gb_create_date</t>
+  </si>
+  <si>
+    <t>gb_update_date</t>
+  </si>
+  <si>
+    <t>host_species</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>lab_construct</t>
+  </si>
+  <si>
+    <t>pubmed_id</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>country_iso</t>
+  </si>
+  <si>
+    <t>country_official</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>collection_month</t>
+  </si>
+  <si>
+    <t>collection_month_day</t>
+  </si>
+  <si>
+    <t>AB109479.1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>AB179747.1</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>HB-JBDH1</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>AB194947.1</t>
+  </si>
+  <si>
+    <t>CMR954</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>AB201289.1</t>
+  </si>
+  <si>
+    <t>Benin269</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>AB205010.1</t>
+  </si>
+  <si>
+    <t>HBV-IM806-2</t>
+  </si>
+  <si>
+    <t>AB205191.1</t>
+  </si>
+  <si>
+    <t>HBV-G166</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>AB266536.1</t>
+  </si>
+  <si>
+    <t>HB-JAIW05</t>
+  </si>
+  <si>
+    <t>Japan: Iwate</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>AB275308.1</t>
+  </si>
+  <si>
+    <t>Japan:Tokyo</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>AB516393.1</t>
+  </si>
+  <si>
+    <t>904MEXM</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>AB554024.1</t>
+  </si>
+  <si>
+    <t>GRS08538</t>
+  </si>
+  <si>
+    <t>Indonesia:Papua</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>AB625342.1</t>
+  </si>
+  <si>
+    <t>MEX918M</t>
+  </si>
+  <si>
+    <t>AB818694.1</t>
+  </si>
+  <si>
+    <t>AB846650.1</t>
+  </si>
+  <si>
+    <t>B-MHJ9014</t>
+  </si>
+  <si>
+    <t>AF160501.1</t>
+  </si>
+  <si>
+    <t>AF533983.1</t>
+  </si>
+  <si>
+    <t>AP011094.1</t>
+  </si>
+  <si>
+    <t>Indonesia:Dili</t>
+  </si>
+  <si>
+    <t>AP011100.1</t>
+  </si>
+  <si>
+    <t>Indonesia:Tahuna</t>
+  </si>
+  <si>
+    <t>AP011108.1</t>
+  </si>
+  <si>
+    <t>AY090454.1</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>AY233296.1</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>AY902777.1</t>
+  </si>
+  <si>
+    <t>MTB004</t>
+  </si>
+  <si>
+    <t>USA: Montana</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>EF157291.1</t>
+  </si>
+  <si>
+    <t>B3586-YKH94</t>
+  </si>
+  <si>
+    <t>EF473977.1</t>
+  </si>
+  <si>
+    <t>KD048East</t>
+  </si>
+  <si>
+    <t>EU498228.1</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>EU594399.1</t>
+  </si>
+  <si>
+    <t>Russia: Chita</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>EU594400.1</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>FJ589067.1</t>
+  </si>
+  <si>
+    <t>UdeA_083</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>FJ692532.2</t>
+  </si>
+  <si>
+    <t>D4_50053</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>FJ904406.1</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>FJ904410.1</t>
+  </si>
+  <si>
+    <t>A54b</t>
+  </si>
+  <si>
+    <t>FJ904416.1</t>
+  </si>
+  <si>
+    <t>A66a</t>
+  </si>
+  <si>
+    <t>FJ904439.1</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>FJ904440.1</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>FJ904443.1</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>GQ358146.1</t>
+  </si>
+  <si>
+    <t>KDI35</t>
+  </si>
+  <si>
+    <t>GQ358147.1</t>
+  </si>
+  <si>
+    <t>KDI43</t>
+  </si>
+  <si>
+    <t>GQ922003.1</t>
+  </si>
+  <si>
+    <t>2B3225</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>GQ924621.1</t>
+  </si>
+  <si>
+    <t>M39</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>GQ924624.1</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>GQ924640.1</t>
+  </si>
+  <si>
+    <t>M72</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>GQ924645.1</t>
+  </si>
+  <si>
+    <t>M82</t>
+  </si>
+  <si>
+    <t>GQ924651.1</t>
+  </si>
+  <si>
+    <t>M88</t>
+  </si>
+  <si>
+    <t>HM011496.1</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>HM066946.2</t>
+  </si>
+  <si>
+    <t>MX-HBV-0114</t>
+  </si>
+  <si>
+    <t>HM117850.2</t>
+  </si>
+  <si>
+    <t>MX-HBV-0153</t>
+  </si>
+  <si>
+    <t>HM363593.1</t>
+  </si>
+  <si>
+    <t>IBL1577</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>HQ378247.1</t>
+  </si>
+  <si>
+    <t>IRL-2009</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>JF754607.1</t>
+  </si>
+  <si>
+    <t>TK67</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>JF754626.1</t>
+  </si>
+  <si>
+    <t>TK23</t>
+  </si>
+  <si>
+    <t>JN642130.1</t>
+  </si>
+  <si>
+    <t>Leb13</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>JN811655.1</t>
+  </si>
+  <si>
+    <t>3Mg</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>JQ707680.1</t>
+  </si>
+  <si>
+    <t>S11_6</t>
+  </si>
+  <si>
+    <t>KF414679.1</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Bolivarian Republic of Venezuela</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>KF767450.1</t>
+  </si>
+  <si>
+    <t>patient_23</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>KM999990.1</t>
+  </si>
+  <si>
+    <t>SEA-01</t>
+  </si>
+  <si>
+    <t>KM999991.1</t>
+  </si>
+  <si>
+    <t>CH-02</t>
+  </si>
+  <si>
+    <t>KP148502.1</t>
+  </si>
+  <si>
+    <t>Y194-2-25</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>KP148510.1</t>
+  </si>
+  <si>
+    <t>Y194-2-33</t>
+  </si>
+  <si>
+    <t>KP234050.1</t>
+  </si>
+  <si>
+    <t>A1-SA</t>
+  </si>
+  <si>
+    <t>KP234051.1</t>
+  </si>
+  <si>
+    <t>A2-EUR</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>KP234052.1</t>
+  </si>
+  <si>
+    <t>A3-CMR</t>
+  </si>
+  <si>
+    <t>KP234053.1</t>
+  </si>
+  <si>
+    <t>A5-HT</t>
+  </si>
+  <si>
+    <t>KX264500.1</t>
+  </si>
+  <si>
+    <t>G-aej</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>KY470857.1</t>
+  </si>
+  <si>
+    <t>KY470859.1</t>
+  </si>
+  <si>
+    <t>2-A08</t>
+  </si>
+  <si>
+    <t>KY470993.1</t>
+  </si>
+  <si>
+    <t>LMX-2</t>
+  </si>
+  <si>
+    <t>V01460.1</t>
+  </si>
+  <si>
+    <t>X69798.1</t>
   </si>
 </sst>
 </file>
@@ -436,12 +1054,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -451,10 +1105,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,772 +1484,4094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" style="11"/>
+    <col min="18" max="18" width="9.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2">
+        <v>3221</v>
+      </c>
+      <c r="D2" s="9">
+        <v>41988</v>
+      </c>
+      <c r="E2" s="9">
+        <v>42488</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2">
+        <v>27002608</v>
+      </c>
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2">
+        <v>2013</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2">
+        <v>27002608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3">
+        <v>3221</v>
+      </c>
+      <c r="D3" s="9">
+        <v>41988</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42488</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3">
+        <v>27002608</v>
+      </c>
+      <c r="L3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3">
+        <v>2013</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3">
+        <v>27002608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4">
+        <v>3221</v>
+      </c>
+      <c r="D4" s="9">
+        <v>41988</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42488</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4">
+        <v>27002608</v>
+      </c>
+      <c r="L4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4">
+        <v>2013</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4">
+        <v>27002608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5">
+        <v>3221</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41988</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42488</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5">
+        <v>27002608</v>
+      </c>
+      <c r="L5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5">
+        <v>2013</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5">
+        <v>27002608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6">
+        <v>3215</v>
+      </c>
+      <c r="D6" s="9">
+        <v>39587</v>
+      </c>
+      <c r="E6" s="9">
+        <v>39595</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6">
+        <v>18463783</v>
+      </c>
+      <c r="L6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" t="s">
+        <v>115</v>
+      </c>
+      <c r="S6">
+        <v>18463783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7">
+        <v>3215</v>
+      </c>
+      <c r="D7" s="9">
+        <v>40167</v>
+      </c>
+      <c r="E7" s="9">
+        <v>40683</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7">
+        <v>20196797</v>
+      </c>
+      <c r="L7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M7" t="s">
+        <v>225</v>
+      </c>
+      <c r="N7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7">
+        <v>2007</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>230</v>
+      </c>
+      <c r="R7">
+        <v>26</v>
+      </c>
+      <c r="S7">
+        <v>20196797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8">
+        <v>3215</v>
+      </c>
+      <c r="D8" s="9">
+        <v>40167</v>
+      </c>
+      <c r="E8" s="9">
+        <v>40683</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8">
+        <v>20196797</v>
+      </c>
+      <c r="L8" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8" t="s">
+        <v>225</v>
+      </c>
+      <c r="N8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8">
+        <v>2006</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8">
+        <v>18</v>
+      </c>
+      <c r="S8">
+        <v>20196797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>3215</v>
+      </c>
+      <c r="D9" s="9">
+        <v>40167</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40683</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9">
+        <v>20196797</v>
+      </c>
+      <c r="L9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" t="s">
+        <v>225</v>
+      </c>
+      <c r="N9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9">
+        <v>2006</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9">
+        <v>19</v>
+      </c>
+      <c r="S9">
+        <v>20196797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10">
+        <v>3215</v>
+      </c>
+      <c r="D10" s="9">
+        <v>40167</v>
+      </c>
+      <c r="E10" s="9">
+        <v>40683</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10">
+        <v>20196797</v>
+      </c>
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" t="s">
+        <v>225</v>
+      </c>
+      <c r="N10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10">
+        <v>2007</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>230</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>20196797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11">
+        <v>3215</v>
+      </c>
+      <c r="D11" s="9">
+        <v>40167</v>
+      </c>
+      <c r="E11" s="9">
+        <v>40683</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11">
+        <v>20196797</v>
+      </c>
+      <c r="L11" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" t="s">
+        <v>225</v>
+      </c>
+      <c r="N11" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11">
+        <v>2007</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>230</v>
+      </c>
+      <c r="R11">
+        <v>23</v>
+      </c>
+      <c r="S11">
+        <v>20196797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12">
+        <v>3215</v>
+      </c>
+      <c r="D12" s="9">
+        <v>40301</v>
+      </c>
+      <c r="E12" s="9">
+        <v>40610</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12">
+        <v>21328372</v>
+      </c>
+      <c r="L12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" t="s">
+        <v>225</v>
+      </c>
+      <c r="N12" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12">
+        <v>2008</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>236</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>21328372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13">
+        <v>3215</v>
+      </c>
+      <c r="D13" s="9">
+        <v>40512</v>
+      </c>
+      <c r="E13" s="9">
+        <v>40662</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13">
+        <v>21318309</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13">
+        <v>2005</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>115</v>
+      </c>
+      <c r="R13" t="s">
+        <v>115</v>
+      </c>
+      <c r="S13">
+        <v>21318309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14">
+        <v>3215</v>
+      </c>
+      <c r="D14" s="9">
+        <v>40512</v>
+      </c>
+      <c r="E14" s="9">
+        <v>40662</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14">
+        <v>21318309</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14">
+        <v>2005</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14">
+        <v>21318309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15">
+        <v>3215</v>
+      </c>
+      <c r="D15" s="9">
+        <v>40002</v>
+      </c>
+      <c r="E15" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15">
+        <v>19499283</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15">
+        <v>19499283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16">
+        <v>3215</v>
+      </c>
+      <c r="D16" s="9">
+        <v>41958</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42457</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16">
+        <v>26662451</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16">
+        <v>2013</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16">
+        <v>26662451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17">
+        <v>3215</v>
+      </c>
+      <c r="D17" s="9">
+        <v>37518</v>
+      </c>
+      <c r="E17" s="9">
+        <v>37518</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>3215</v>
+      </c>
+      <c r="D18" s="9">
+        <v>40002</v>
+      </c>
+      <c r="E18" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18">
+        <v>19499283</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18">
+        <v>19499283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="9">
+        <v>41958</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42457</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="J19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19">
+        <v>26662451</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19">
+        <v>2013</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19">
+        <v>26662451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20">
+        <v>3215</v>
+      </c>
+      <c r="D20" s="9">
+        <v>40002</v>
+      </c>
+      <c r="E20" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20">
+        <v>19499283</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R20" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20">
+        <v>19499283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21">
+        <v>3182</v>
+      </c>
+      <c r="D21" s="9">
+        <v>40756</v>
+      </c>
+      <c r="E21" s="9">
+        <v>40756</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21">
+        <v>21678435</v>
+      </c>
+      <c r="L21" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" t="s">
+        <v>252</v>
+      </c>
+      <c r="N21" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21">
+        <v>21678435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22">
+        <v>3182</v>
+      </c>
+      <c r="D22" s="9">
+        <v>40756</v>
+      </c>
+      <c r="E22" s="9">
+        <v>40756</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22">
+        <v>21678435</v>
+      </c>
+      <c r="L22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" t="s">
+        <v>252</v>
+      </c>
+      <c r="N22" t="s">
+        <v>251</v>
+      </c>
+      <c r="O22" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" t="s">
+        <v>115</v>
+      </c>
+      <c r="S22">
+        <v>21678435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23">
+        <v>3182</v>
+      </c>
+      <c r="D23" s="9">
+        <v>40966</v>
+      </c>
+      <c r="E23" s="9">
+        <v>42807</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23">
+        <v>22785194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>257</v>
+      </c>
+      <c r="M23" t="s">
+        <v>258</v>
+      </c>
+      <c r="N23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23">
+        <v>2010</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" t="s">
+        <v>115</v>
+      </c>
+      <c r="S23">
+        <v>22785194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>3182</v>
+      </c>
+      <c r="D24" s="9">
+        <v>38323</v>
+      </c>
+      <c r="E24" s="9">
+        <v>38722</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24">
+        <v>16299716</v>
+      </c>
+      <c r="L24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>115</v>
+      </c>
+      <c r="R24" t="s">
+        <v>115</v>
+      </c>
+      <c r="S24">
+        <v>16299716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25">
+        <v>3182</v>
+      </c>
+      <c r="D25" s="9">
+        <v>39665</v>
+      </c>
+      <c r="E25" s="9">
+        <v>39665</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25">
+        <v>18632953</v>
+      </c>
+      <c r="L25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" t="s">
+        <v>185</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25" t="s">
+        <v>115</v>
+      </c>
+      <c r="S25">
+        <v>18632953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26">
+        <v>3182</v>
+      </c>
+      <c r="D26" s="9">
+        <v>39665</v>
+      </c>
+      <c r="E26" s="9">
+        <v>39665</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26">
+        <v>18632953</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" t="s">
+        <v>115</v>
+      </c>
+      <c r="S26">
+        <v>18632953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>3179</v>
+      </c>
+      <c r="D27" s="9">
+        <v>40540</v>
+      </c>
+      <c r="E27" s="9">
+        <v>40540</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27">
+        <v>21108339</v>
+      </c>
+      <c r="L27" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S27">
+        <v>21108339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28">
+        <v>3182</v>
+      </c>
+      <c r="D28" s="9">
+        <v>38047</v>
+      </c>
+      <c r="E28" s="9">
+        <v>38100</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="11">
+        <v>185</v>
+      </c>
+      <c r="J28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28">
+        <v>15105537</v>
+      </c>
+      <c r="L28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" t="s">
+        <v>115</v>
+      </c>
+      <c r="S28">
+        <v>15105537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29">
+        <v>3181</v>
+      </c>
+      <c r="D29" s="9">
+        <v>38403</v>
+      </c>
+      <c r="E29" s="9">
+        <v>42577</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29">
+        <v>15382123</v>
+      </c>
+      <c r="L29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" t="s">
+        <v>172</v>
+      </c>
+      <c r="N29" t="s">
+        <v>173</v>
+      </c>
+      <c r="O29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" t="s">
+        <v>115</v>
+      </c>
+      <c r="S29">
+        <v>15382123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30">
+        <v>3182</v>
+      </c>
+      <c r="D30" s="9">
+        <v>30111</v>
+      </c>
+      <c r="E30" s="9">
+        <v>37649</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30">
+        <v>399327</v>
+      </c>
+      <c r="L30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>115</v>
+      </c>
+      <c r="R30" t="s">
+        <v>115</v>
+      </c>
+      <c r="S30">
+        <v>399327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31">
+        <v>3182</v>
+      </c>
+      <c r="D31" s="9">
+        <v>40030</v>
+      </c>
+      <c r="E31" s="9">
+        <v>40920</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31">
+        <v>19751583</v>
+      </c>
+      <c r="L31" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" t="s">
+        <v>197</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P31">
+        <v>2006</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>115</v>
+      </c>
+      <c r="R31" t="s">
+        <v>115</v>
+      </c>
+      <c r="S31">
+        <v>19751583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32">
+        <v>3182</v>
+      </c>
+      <c r="D32" s="9">
+        <v>39930</v>
+      </c>
+      <c r="E32" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32">
+        <v>19339480</v>
+      </c>
+      <c r="L32" t="s">
+        <v>200</v>
+      </c>
+      <c r="M32" t="s">
+        <v>201</v>
+      </c>
+      <c r="N32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" t="s">
+        <v>115</v>
+      </c>
+      <c r="P32">
+        <v>2005</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>19339480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33">
+        <v>3182</v>
+      </c>
+      <c r="D33" s="9">
+        <v>40105</v>
+      </c>
+      <c r="E33" s="9">
+        <v>40682</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J33" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33">
+        <v>20723037</v>
+      </c>
+      <c r="L33" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33">
+        <v>1984</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>221</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>20723037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34">
+        <v>3182</v>
+      </c>
+      <c r="D34" s="9">
+        <v>39930</v>
+      </c>
+      <c r="E34" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34">
+        <v>19339480</v>
+      </c>
+      <c r="L34" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34">
+        <v>2006</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>202</v>
+      </c>
+      <c r="R34">
+        <v>28</v>
+      </c>
+      <c r="S34">
+        <v>19339480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35">
+        <v>3182</v>
+      </c>
+      <c r="D35" s="9">
+        <v>39930</v>
+      </c>
+      <c r="E35" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J35" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35">
+        <v>19339480</v>
+      </c>
+      <c r="L35" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" t="s">
+        <v>201</v>
+      </c>
+      <c r="N35" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35">
+        <v>2006</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>202</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <v>19339480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36">
+        <v>3182</v>
+      </c>
+      <c r="D36" s="9">
+        <v>39930</v>
+      </c>
+      <c r="E36" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="H36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36">
+        <v>19339480</v>
+      </c>
+      <c r="L36" t="s">
+        <v>200</v>
+      </c>
+      <c r="M36" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" t="s">
+        <v>200</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>115</v>
+      </c>
+      <c r="R36" t="s">
+        <v>115</v>
+      </c>
+      <c r="S36">
+        <v>19339480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37">
+        <v>3182</v>
+      </c>
+      <c r="D37" s="9">
+        <v>39930</v>
+      </c>
+      <c r="E37" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="G37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37">
+        <v>19339480</v>
+      </c>
+      <c r="L37" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" t="s">
+        <v>201</v>
+      </c>
+      <c r="N37" t="s">
+        <v>200</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37">
+        <v>2006</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>202</v>
+      </c>
+      <c r="R37">
+        <v>17</v>
+      </c>
+      <c r="S37">
+        <v>19339480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38">
+        <v>3182</v>
+      </c>
+      <c r="D38" s="9">
+        <v>39930</v>
+      </c>
+      <c r="E38" s="9">
+        <v>40002</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38">
+        <v>19339480</v>
+      </c>
+      <c r="L38" t="s">
+        <v>200</v>
+      </c>
+      <c r="M38" t="s">
+        <v>201</v>
+      </c>
+      <c r="N38" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R38" t="s">
+        <v>115</v>
+      </c>
+      <c r="S38">
+        <v>19339480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39">
+        <v>3212</v>
+      </c>
+      <c r="D39" s="9">
+        <v>38521</v>
+      </c>
+      <c r="E39" s="9">
+        <v>39403</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39">
+        <v>15958684</v>
+      </c>
+      <c r="L39" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" t="s">
+        <v>124</v>
+      </c>
+      <c r="N39" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>115</v>
+      </c>
+      <c r="R39" t="s">
+        <v>115</v>
+      </c>
+      <c r="S39">
+        <v>15958684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40">
+        <v>3212</v>
+      </c>
+      <c r="D40" s="9">
+        <v>38566</v>
+      </c>
+      <c r="E40" s="9">
+        <v>38569</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
+      <c r="G40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" t="s">
+        <v>127</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40" t="s">
+        <v>115</v>
+      </c>
+      <c r="S40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>3212</v>
+      </c>
+      <c r="D41" s="9">
+        <v>38490</v>
+      </c>
+      <c r="E41" s="9">
+        <v>38729</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41">
+        <v>16372296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>133</v>
+      </c>
+      <c r="M41" t="s">
+        <v>134</v>
+      </c>
+      <c r="N41" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S41">
+        <v>16372296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42">
+        <v>3212</v>
+      </c>
+      <c r="D42" s="9">
+        <v>40414</v>
+      </c>
+      <c r="E42" s="9">
+        <v>42576</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42">
+        <v>20657838</v>
+      </c>
+      <c r="L42" t="s">
+        <v>243</v>
+      </c>
+      <c r="M42" t="s">
+        <v>244</v>
+      </c>
+      <c r="N42" t="s">
+        <v>243</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42">
+        <v>2007</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42" t="s">
+        <v>115</v>
+      </c>
+      <c r="S42">
+        <v>20657838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43">
+        <v>3215</v>
+      </c>
+      <c r="D43" s="9">
+        <v>40575</v>
+      </c>
+      <c r="E43" s="9">
+        <v>40812</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43">
+        <v>21941645</v>
+      </c>
+      <c r="L43" t="s">
+        <v>192</v>
+      </c>
+      <c r="M43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N43" t="s">
+        <v>192</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>115</v>
+      </c>
+      <c r="R43" t="s">
+        <v>115</v>
+      </c>
+      <c r="S43">
+        <v>21941645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>3215</v>
+      </c>
+      <c r="D44" s="9">
+        <v>40534</v>
+      </c>
+      <c r="E44" s="9">
+        <v>40879</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J44" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44">
+        <v>21802353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>247</v>
+      </c>
+      <c r="M44" t="s">
+        <v>248</v>
+      </c>
+      <c r="N44" t="s">
+        <v>247</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44">
+        <v>2009</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>115</v>
+      </c>
+      <c r="R44" t="s">
+        <v>115</v>
+      </c>
+      <c r="S44">
+        <v>21802353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45">
+        <v>3215</v>
+      </c>
+      <c r="D45" s="9">
+        <v>40965</v>
+      </c>
+      <c r="E45" s="9">
+        <v>40965</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="H45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="J45" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" t="s">
+        <v>261</v>
+      </c>
+      <c r="M45" t="s">
+        <v>262</v>
+      </c>
+      <c r="N45" t="s">
+        <v>261</v>
+      </c>
+      <c r="O45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P45">
+        <v>2008</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>115</v>
+      </c>
+      <c r="R45" t="s">
+        <v>115</v>
+      </c>
+      <c r="S45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46">
+        <v>3215</v>
+      </c>
+      <c r="D46" s="9">
+        <v>34001</v>
+      </c>
+      <c r="E46" s="9">
+        <v>36970</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="H46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J46" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46">
+        <v>8345355</v>
+      </c>
+      <c r="L46" t="s">
+        <v>115</v>
+      </c>
+      <c r="M46" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" t="s">
+        <v>115</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>115</v>
+      </c>
+      <c r="R46" t="s">
+        <v>115</v>
+      </c>
+      <c r="S46">
+        <v>8345355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47">
+        <v>3248</v>
+      </c>
+      <c r="D47" s="9">
+        <v>40999</v>
+      </c>
+      <c r="E47" s="9">
+        <v>41674</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47" t="s">
+        <v>144</v>
+      </c>
+      <c r="O47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>115</v>
+      </c>
+      <c r="R47" t="s">
+        <v>115</v>
+      </c>
+      <c r="S47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48">
+        <v>3248</v>
+      </c>
+      <c r="D48" s="9">
+        <v>36573</v>
+      </c>
+      <c r="E48" s="9">
+        <v>36573</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48">
+        <v>10640543</v>
+      </c>
+      <c r="L48" t="s">
+        <v>115</v>
+      </c>
+      <c r="M48" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" t="s">
+        <v>115</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>115</v>
+      </c>
+      <c r="R48" t="s">
+        <v>115</v>
+      </c>
+      <c r="S48">
+        <v>10640543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49">
+        <v>3248</v>
+      </c>
+      <c r="D49" s="9">
+        <v>41017</v>
+      </c>
+      <c r="E49" s="9">
+        <v>41037</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J49" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49">
+        <v>22510694</v>
+      </c>
+      <c r="L49" t="s">
+        <v>172</v>
+      </c>
+      <c r="M49" t="s">
+        <v>172</v>
+      </c>
+      <c r="N49" t="s">
+        <v>173</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49">
+        <v>2003</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>202</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>22510694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50">
+        <v>3248</v>
+      </c>
+      <c r="D50" s="9">
+        <v>41821</v>
+      </c>
+      <c r="E50" s="9">
+        <v>41821</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50">
+        <v>24895404</v>
+      </c>
+      <c r="L50" t="s">
+        <v>267</v>
+      </c>
+      <c r="M50" t="s">
+        <v>268</v>
+      </c>
+      <c r="N50" t="s">
+        <v>269</v>
+      </c>
+      <c r="O50" t="s">
+        <v>115</v>
+      </c>
+      <c r="P50">
+        <v>2005</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>270</v>
+      </c>
+      <c r="R50">
+        <v>24</v>
+      </c>
+      <c r="S50">
+        <v>24895404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51">
+        <v>3248</v>
+      </c>
+      <c r="D51" s="9">
+        <v>41605</v>
+      </c>
+      <c r="E51" s="9">
+        <v>41605</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51">
+        <v>24225261</v>
+      </c>
+      <c r="L51" t="s">
+        <v>273</v>
+      </c>
+      <c r="M51" t="s">
+        <v>274</v>
+      </c>
+      <c r="N51" t="s">
+        <v>273</v>
+      </c>
+      <c r="O51" t="s">
+        <v>115</v>
+      </c>
+      <c r="P51">
+        <v>2002</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>221</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>24225261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52">
+        <v>3248</v>
+      </c>
+      <c r="D52" s="9">
+        <v>42521</v>
+      </c>
+      <c r="E52" s="9">
+        <v>42521</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C47" t="s">
+      <c r="G52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" t="s">
+        <v>296</v>
+      </c>
+      <c r="M52" t="s">
+        <v>297</v>
+      </c>
+      <c r="N52" t="s">
+        <v>296</v>
+      </c>
+      <c r="O52" t="s">
+        <v>115</v>
+      </c>
+      <c r="P52">
+        <v>2013</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>115</v>
+      </c>
+      <c r="R52" t="s">
+        <v>115</v>
+      </c>
+      <c r="S52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>3215</v>
+      </c>
+      <c r="D53" s="9">
+        <v>38406</v>
+      </c>
+      <c r="E53" s="9">
+        <v>39823</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53">
+        <v>15722519</v>
+      </c>
+      <c r="L53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M53" t="s">
+        <v>120</v>
+      </c>
+      <c r="N53" t="s">
+        <v>119</v>
+      </c>
+      <c r="O53" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>115</v>
+      </c>
+      <c r="R53" t="s">
+        <v>115</v>
+      </c>
+      <c r="S53">
+        <v>15722519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54">
+        <v>3215</v>
+      </c>
+      <c r="D54" s="9">
+        <v>38588</v>
+      </c>
+      <c r="E54" s="9">
+        <v>38605</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K54">
+        <v>16116261</v>
+      </c>
+      <c r="L54" t="s">
+        <v>119</v>
+      </c>
+      <c r="M54" t="s">
+        <v>120</v>
+      </c>
+      <c r="N54" t="s">
+        <v>119</v>
+      </c>
+      <c r="O54" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>115</v>
+      </c>
+      <c r="R54" t="s">
+        <v>115</v>
+      </c>
+      <c r="S54">
+        <v>16116261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55">
+        <v>3215</v>
+      </c>
+      <c r="D55" s="9">
+        <v>39156</v>
+      </c>
+      <c r="E55" s="9">
+        <v>39823</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J55" t="s">
+        <v>115</v>
+      </c>
+      <c r="K55">
+        <v>17351807</v>
+      </c>
+      <c r="L55" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N55" t="s">
+        <v>119</v>
+      </c>
+      <c r="O55" t="s">
+        <v>115</v>
+      </c>
+      <c r="P55">
+        <v>2005</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>138</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>17351807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56">
+        <v>3215</v>
+      </c>
+      <c r="D56" s="9">
+        <v>39098</v>
+      </c>
+      <c r="E56" s="9">
+        <v>39098</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" t="s">
+        <v>115</v>
+      </c>
+      <c r="K56" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" t="s">
+        <v>140</v>
+      </c>
+      <c r="M56" t="s">
+        <v>120</v>
+      </c>
+      <c r="N56" t="s">
+        <v>119</v>
+      </c>
+      <c r="O56" t="s">
+        <v>115</v>
+      </c>
+      <c r="P56">
+        <v>2005</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>141</v>
+      </c>
+      <c r="R56">
+        <v>19</v>
+      </c>
+      <c r="S56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57">
+        <v>3215</v>
+      </c>
+      <c r="D57" s="9">
+        <v>40416</v>
+      </c>
+      <c r="E57" s="9">
+        <v>40416</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57">
+        <v>20648606</v>
+      </c>
+      <c r="L57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" t="s">
+        <v>145</v>
+      </c>
+      <c r="N57" t="s">
+        <v>144</v>
+      </c>
+      <c r="O57" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>115</v>
+      </c>
+      <c r="R57" t="s">
+        <v>115</v>
+      </c>
+      <c r="S57">
+        <v>20648606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58">
+        <v>3215</v>
+      </c>
+      <c r="D58" s="9">
+        <v>41751</v>
+      </c>
+      <c r="E58" s="9">
+        <v>41970</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="H58" t="s">
+        <v>117</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" t="s">
+        <v>115</v>
+      </c>
+      <c r="K58">
+        <v>24020990</v>
+      </c>
+      <c r="L58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M58" t="s">
+        <v>120</v>
+      </c>
+      <c r="N58" t="s">
+        <v>119</v>
+      </c>
+      <c r="O58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P58" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>115</v>
+      </c>
+      <c r="R58" t="s">
+        <v>115</v>
+      </c>
+      <c r="S58">
+        <v>24020990</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59">
+        <v>3215</v>
+      </c>
+      <c r="D59" s="9">
+        <v>41502</v>
+      </c>
+      <c r="E59" s="9">
+        <v>41502</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="H59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J59" t="s">
+        <v>115</v>
+      </c>
+      <c r="K59" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59" t="s">
+        <v>119</v>
+      </c>
+      <c r="M59" t="s">
+        <v>120</v>
+      </c>
+      <c r="N59" t="s">
+        <v>119</v>
+      </c>
+      <c r="O59" t="s">
+        <v>115</v>
+      </c>
+      <c r="P59" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>115</v>
+      </c>
+      <c r="R59" t="s">
+        <v>115</v>
+      </c>
+      <c r="S59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60">
+        <v>3215</v>
+      </c>
+      <c r="D60" s="9">
+        <v>37475</v>
+      </c>
+      <c r="E60" s="9">
+        <v>37475</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="H60" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60" t="s">
+        <v>115</v>
+      </c>
+      <c r="K60">
+        <v>12124470</v>
+      </c>
+      <c r="L60" t="s">
+        <v>164</v>
+      </c>
+      <c r="M60" t="s">
+        <v>165</v>
+      </c>
+      <c r="N60" t="s">
+        <v>164</v>
+      </c>
+      <c r="O60" t="s">
+        <v>115</v>
+      </c>
+      <c r="P60" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>115</v>
+      </c>
+      <c r="R60" t="s">
+        <v>115</v>
+      </c>
+      <c r="S60">
+        <v>12124470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61">
+        <v>3215</v>
+      </c>
+      <c r="D61" s="9">
+        <v>39084</v>
+      </c>
+      <c r="E61" s="9">
+        <v>39084</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="H61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J61" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" t="s">
+        <v>119</v>
+      </c>
+      <c r="M61" t="s">
+        <v>120</v>
+      </c>
+      <c r="N61" t="s">
+        <v>119</v>
+      </c>
+      <c r="O61" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>115</v>
+      </c>
+      <c r="R61" t="s">
+        <v>115</v>
+      </c>
+      <c r="S61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62">
+        <v>3215</v>
+      </c>
+      <c r="D62" s="9">
+        <v>39862</v>
+      </c>
+      <c r="E62" s="9">
+        <v>39862</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="H62" t="s">
+        <v>117</v>
+      </c>
+      <c r="I62" s="11">
+        <v>141</v>
+      </c>
+      <c r="J62" t="s">
+        <v>115</v>
+      </c>
+      <c r="K62" t="s">
+        <v>115</v>
+      </c>
+      <c r="L62" t="s">
+        <v>179</v>
+      </c>
+      <c r="M62" t="s">
+        <v>180</v>
+      </c>
+      <c r="N62" t="s">
+        <v>179</v>
+      </c>
+      <c r="O62" t="s">
+        <v>115</v>
+      </c>
+      <c r="P62" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>115</v>
+      </c>
+      <c r="R62" t="s">
+        <v>115</v>
+      </c>
+      <c r="S62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63">
+        <v>3215</v>
+      </c>
+      <c r="D63" s="9">
+        <v>40301</v>
+      </c>
+      <c r="E63" s="9">
+        <v>40351</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="H63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J63" t="s">
+        <v>115</v>
+      </c>
+      <c r="K63" t="s">
+        <v>115</v>
+      </c>
+      <c r="L63" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" t="s">
+        <v>145</v>
+      </c>
+      <c r="N63" t="s">
+        <v>144</v>
+      </c>
+      <c r="O63" t="s">
+        <v>115</v>
+      </c>
+      <c r="P63">
+        <v>2008</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>115</v>
+      </c>
+      <c r="R63" t="s">
+        <v>115</v>
+      </c>
+      <c r="S63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64">
+        <v>3215</v>
+      </c>
+      <c r="D64" s="9">
+        <v>40301</v>
+      </c>
+      <c r="E64" s="9">
+        <v>40351</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="H64" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J64" t="s">
+        <v>115</v>
+      </c>
+      <c r="K64" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" t="s">
+        <v>145</v>
+      </c>
+      <c r="N64" t="s">
+        <v>144</v>
+      </c>
+      <c r="O64" t="s">
+        <v>115</v>
+      </c>
+      <c r="P64">
+        <v>2009</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>115</v>
+      </c>
+      <c r="R64" t="s">
+        <v>115</v>
+      </c>
+      <c r="S64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65">
+        <v>3215</v>
+      </c>
+      <c r="D65" s="9">
+        <v>42571</v>
+      </c>
+      <c r="E65" s="9">
+        <v>42571</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="H65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J65" t="s">
+        <v>115</v>
+      </c>
+      <c r="K65" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65" t="s">
+        <v>181</v>
+      </c>
+      <c r="M65" t="s">
+        <v>182</v>
+      </c>
+      <c r="N65" t="s">
+        <v>181</v>
+      </c>
+      <c r="O65" t="s">
+        <v>115</v>
+      </c>
+      <c r="P65">
+        <v>2012</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>281</v>
+      </c>
+      <c r="R65">
+        <v>26</v>
+      </c>
+      <c r="S65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66">
+        <v>3215</v>
+      </c>
+      <c r="D66" s="9">
+        <v>42571</v>
+      </c>
+      <c r="E66" s="9">
+        <v>42571</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="H66" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J66" t="s">
+        <v>115</v>
+      </c>
+      <c r="K66" t="s">
+        <v>115</v>
+      </c>
+      <c r="L66" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66" t="s">
+        <v>182</v>
+      </c>
+      <c r="N66" t="s">
+        <v>181</v>
+      </c>
+      <c r="O66" t="s">
+        <v>115</v>
+      </c>
+      <c r="P66">
+        <v>2012</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>281</v>
+      </c>
+      <c r="R66">
+        <v>26</v>
+      </c>
+      <c r="S66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67">
+        <v>3215</v>
+      </c>
+      <c r="D67" s="9">
+        <v>42843</v>
+      </c>
+      <c r="E67" s="9">
+        <v>42843</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="H67" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" s="12">
+        <v>44593</v>
+      </c>
+      <c r="J67" t="s">
+        <v>115</v>
+      </c>
+      <c r="K67">
+        <v>28386078</v>
+      </c>
+      <c r="L67" t="s">
+        <v>181</v>
+      </c>
+      <c r="M67" t="s">
+        <v>182</v>
+      </c>
+      <c r="N67" t="s">
+        <v>181</v>
+      </c>
+      <c r="O67" t="s">
+        <v>115</v>
+      </c>
+      <c r="P67">
+        <v>2015</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>141</v>
+      </c>
+      <c r="R67">
+        <v>23</v>
+      </c>
+      <c r="S67">
+        <v>28386078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68">
+        <v>3215</v>
+      </c>
+      <c r="D68" s="9">
+        <v>42843</v>
+      </c>
+      <c r="E68" s="9">
+        <v>42843</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="H68" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="J68" t="s">
+        <v>115</v>
+      </c>
+      <c r="K68">
+        <v>28386078</v>
+      </c>
+      <c r="L68" t="s">
+        <v>181</v>
+      </c>
+      <c r="M68" t="s">
+        <v>182</v>
+      </c>
+      <c r="N68" t="s">
+        <v>181</v>
+      </c>
+      <c r="O68" t="s">
+        <v>115</v>
+      </c>
+      <c r="P68">
+        <v>2015</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>141</v>
+      </c>
+      <c r="R68">
+        <v>23</v>
+      </c>
+      <c r="S68">
+        <v>28386078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69">
+        <v>3215</v>
+      </c>
+      <c r="D69" s="9">
+        <v>42843</v>
+      </c>
+      <c r="E69" s="9">
+        <v>42843</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="H69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="J69" t="s">
+        <v>115</v>
+      </c>
+      <c r="K69">
+        <v>28386078</v>
+      </c>
+      <c r="L69" t="s">
+        <v>181</v>
+      </c>
+      <c r="M69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N69" t="s">
+        <v>181</v>
+      </c>
+      <c r="O69" t="s">
+        <v>115</v>
+      </c>
+      <c r="P69">
+        <v>2015</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>141</v>
+      </c>
+      <c r="R69">
+        <v>30</v>
+      </c>
+      <c r="S69">
+        <v>28386078</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:S69">
+    <sortCondition ref="F2:F69"/>
+    <sortCondition ref="G2:G69"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/hbv_refseq_data.xlsx
+++ b/tabular/hbv_refseq_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="0" windowWidth="36420" windowHeight="24720" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="2460" windowWidth="30300" windowHeight="20820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1054,8 +1054,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1116,7 +1174,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1136,6 +1194,35 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1155,6 +1242,35 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1487,7 +1603,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/hbv_refseq_data.xlsx
+++ b/tabular/hbv_refseq_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2460" windowWidth="30300" windowHeight="20820" tabRatio="500"/>
+    <workbookView xWindow="14580" yWindow="740" windowWidth="30300" windowHeight="20820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/hbv_refseq_data.xlsx
+++ b/tabular/hbv_refseq_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="740" windowWidth="30300" windowHeight="20820" tabRatio="500"/>
+    <workbookView xWindow="17960" yWindow="0" windowWidth="30300" windowHeight="20820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="E16:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/hbv_refseq_data.xlsx
+++ b/tabular/hbv_refseq_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="0" windowWidth="30300" windowHeight="20820" tabRatio="500"/>
+    <workbookView xWindow="17960" yWindow="0" windowWidth="31220" windowHeight="25580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1044,6 +1044,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1054,7 +1066,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1152,8 +1164,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1173,8 +1191,10 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1223,6 +1243,9 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1271,6 +1294,9 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1602,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="E16:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2794,10 +2820,10 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C21">
         <v>3182</v>
@@ -2818,7 +2844,7 @@
         <v>117</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J21" t="s">
         <v>115</v>
@@ -2853,19 +2879,19 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C22">
         <v>3182</v>
       </c>
       <c r="D22" s="9">
-        <v>40756</v>
+        <v>40966</v>
       </c>
       <c r="E22" s="9">
-        <v>40756</v>
+        <v>42807</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>39</v>
@@ -2877,28 +2903,28 @@
         <v>117</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J22" t="s">
         <v>115</v>
       </c>
       <c r="K22">
-        <v>21678435</v>
+        <v>22785194</v>
       </c>
       <c r="L22" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N22" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s">
         <v>115</v>
       </c>
-      <c r="P22" t="s">
-        <v>115</v>
+      <c r="P22">
+        <v>2010</v>
       </c>
       <c r="Q22" t="s">
         <v>115</v>
@@ -2907,24 +2933,24 @@
         <v>115</v>
       </c>
       <c r="S22">
-        <v>21678435</v>
+        <v>22785194</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C23">
         <v>3182</v>
       </c>
       <c r="D23" s="9">
-        <v>40966</v>
+        <v>40756</v>
       </c>
       <c r="E23" s="9">
-        <v>42807</v>
+        <v>40756</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>39</v>
@@ -2936,28 +2962,28 @@
         <v>117</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
         <v>115</v>
       </c>
       <c r="K23">
-        <v>22785194</v>
+        <v>21678435</v>
       </c>
       <c r="L23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
         <v>115</v>
       </c>
-      <c r="P23">
-        <v>2010</v>
+      <c r="P23" t="s">
+        <v>115</v>
       </c>
       <c r="Q23" t="s">
         <v>115</v>
@@ -2966,7 +2992,7 @@
         <v>115</v>
       </c>
       <c r="S23">
-        <v>22785194</v>
+        <v>21678435</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -3457,10 +3483,10 @@
       <c r="E32" s="9">
         <v>40002</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="13" t="s">
         <v>52</v>
       </c>
       <c r="H32" t="s">
@@ -4327,10 +4353,10 @@
       </c>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" t="s">
+      <c r="A47" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C47">
@@ -4386,10 +4412,10 @@
       </c>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" t="s">
+      <c r="A48" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="14" t="s">
         <v>156</v>
       </c>
       <c r="C48">
@@ -4445,10 +4471,10 @@
       </c>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" t="s">
+      <c r="A49" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="14" t="s">
         <v>263</v>
       </c>
       <c r="C49">
@@ -4504,10 +4530,10 @@
       </c>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" t="s">
+      <c r="A50" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C50">
@@ -4563,10 +4589,10 @@
       </c>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" t="s">
+      <c r="A51" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="14" t="s">
         <v>271</v>
       </c>
       <c r="C51">
@@ -4622,10 +4648,10 @@
       </c>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" t="s">
+      <c r="A52" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="14" t="s">
         <v>294</v>
       </c>
       <c r="C52">

--- a/tabular/hbv_refseq_data.xlsx
+++ b/tabular/hbv_refseq_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="0" windowWidth="31220" windowHeight="25580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,6 +1053,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1177,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1193,6 +1199,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1629,7 +1636,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2583,10 +2590,10 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" t="s">
+      <c r="A17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
         <v>157</v>
       </c>
       <c r="C17">
